--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3715.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3715.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.351032570268888</v>
+        <v>1.667443990707397</v>
       </c>
       <c r="B1">
-        <v>2.839745903285559</v>
+        <v>4.055765151977539</v>
       </c>
       <c r="C1">
-        <v>6.639385032785981</v>
+        <v>3.357496023178101</v>
       </c>
       <c r="D1">
-        <v>1.983795766621042</v>
+        <v>1.582585334777832</v>
       </c>
       <c r="E1">
-        <v>1.032330591691915</v>
+        <v>0.7899190187454224</v>
       </c>
     </row>
   </sheetData>
